--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>f5a40228283e40c8a9b1602fe05d3606</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>1ab066d8adfc41c5838e7ebc908a5765</t>
+  </si>
+  <si>
+    <t>aff48ef9b479476a880f1b2aa9069132</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +851,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -871,7 +874,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -894,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -908,32 +911,32 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -944,8 +947,180 @@
         <v>0.4194444444444445</v>
       </c>
     </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>55.39</v>
+      </c>
+      <c r="C46">
+        <v>60.9176157115223</v>
+      </c>
+      <c r="D46">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>76.75</v>
+      </c>
+      <c r="C47">
+        <v>87.23094749123473</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="G47">
+        <v>22.66</v>
+      </c>
+      <c r="H47">
+        <v>44.04453234215361</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>102.3</v>
+      </c>
+      <c r="C48">
+        <v>102.3007008435684</v>
+      </c>
+      <c r="D48">
+        <v>0.9</v>
+      </c>
+      <c r="G48">
+        <v>53.76</v>
+      </c>
+      <c r="H48">
+        <v>53.76228157544278</v>
+      </c>
+      <c r="I48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>38.77</v>
+      </c>
+      <c r="C49">
+        <v>38.76666340151514</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>0.8998980379188712</v>
+      </c>
+      <c r="G55">
+        <v>0.7911493764172335</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -955,6 +1130,9 @@
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="G30:K30"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,32 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
-  <si>
-    <t>f5a40228283e40c8a9b1602fe05d3606</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+  <si>
+    <t>d1373849146249d9ba3d469c9f7bd508</t>
   </si>
   <si>
     <t>ML-Searchengine</t>
   </si>
   <si>
+    <t>Avg. TF-IDF</t>
+  </si>
+  <si>
+    <t>Top TF-IDF</t>
+  </si>
+  <si>
+    <t>nDCG</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
     <t>Fulltext-Searchengine</t>
   </si>
   <si>
-    <t>Avg. TF-IDF</t>
-  </si>
-  <si>
-    <t>Top TF-IDF</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Query 1</t>
   </si>
   <si>
@@ -73,13 +70,10 @@
     <t>MAP</t>
   </si>
   <si>
-    <t>beab50d10d0848ba9b2944bf9dbbb1e9</t>
-  </si>
-  <si>
-    <t>1ab066d8adfc41c5838e7ebc908a5765</t>
-  </si>
-  <si>
-    <t>aff48ef9b479476a880f1b2aa9069132</t>
+    <t>c9fd5cda55ed488db73dbb75806f5810</t>
+  </si>
+  <si>
+    <t>d1e07f414cff4a038271f43b379873b6</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +448,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -463,39 +457,33 @@
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>55.39</v>
@@ -504,12 +492,15 @@
         <v>60.9176157115223</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.8491130822519277</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>76.75</v>
@@ -518,7 +509,10 @@
         <v>87.23094749123473</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.8201741356762529</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
       </c>
       <c r="G5">
         <v>22.66</v>
@@ -527,12 +521,15 @@
         <v>44.04453234215361</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>102.3</v>
@@ -541,6 +538,9 @@
         <v>102.3007008435684</v>
       </c>
       <c r="D6">
+        <v>0.9429942892150167</v>
+      </c>
+      <c r="E6">
         <v>0.8</v>
       </c>
       <c r="G6">
@@ -550,12 +550,15 @@
         <v>53.76228157544278</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0.8631997506525686</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>38.77</v>
@@ -564,48 +567,56 @@
         <v>38.76666340151514</v>
       </c>
       <c r="D7">
+        <v>0.9469024295259745</v>
+      </c>
+      <c r="E7">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.7330126842403628</v>
-      </c>
-      <c r="G13">
-        <v>0.7777248677248676</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.7877108134920635</v>
+      </c>
+      <c r="G14">
+        <v>0.8630456349206349</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -626,7 +637,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -635,39 +646,33 @@
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
         <v>3</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>55.39</v>
@@ -676,12 +681,15 @@
         <v>60.9176157115223</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.8631997506525686</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>76.75</v>
@@ -690,7 +698,10 @@
         <v>87.23094749123473</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="G19">
         <v>22.66</v>
@@ -699,12 +710,15 @@
         <v>44.04453234215361</v>
       </c>
       <c r="I19">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>102.3</v>
@@ -713,6 +727,9 @@
         <v>102.3007008435684</v>
       </c>
       <c r="D20">
+        <v>0.9963488021549354</v>
+      </c>
+      <c r="E20">
         <v>0.8</v>
       </c>
       <c r="G20">
@@ -722,12 +739,15 @@
         <v>53.76228157544278</v>
       </c>
       <c r="I20">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>38.77</v>
@@ -736,48 +756,56 @@
         <v>38.76666340151514</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.8529278650606567</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>0.7917906746031746</v>
-      </c>
-      <c r="G27">
-        <v>0.8671130952380952</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>0.8530505952380953</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -798,7 +826,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -807,320 +835,285 @@
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
       <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
         <v>3</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>4</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>55.39</v>
+        <v>57.02</v>
       </c>
       <c r="C32">
         <v>60.9176157115223</v>
       </c>
       <c r="D32">
+        <v>0.8878428156094799</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>108.55</v>
+      </c>
+      <c r="C33">
+        <v>125.6668670312026</v>
+      </c>
+      <c r="D33">
+        <v>0.6027819274910589</v>
+      </c>
+      <c r="E33">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="G33">
+        <v>62.95</v>
+      </c>
+      <c r="H33">
+        <v>70.67666514846523</v>
+      </c>
+      <c r="I33">
+        <v>0.844330763384584</v>
+      </c>
+      <c r="J33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B33">
-        <v>76.75</v>
-      </c>
-      <c r="C33">
+      <c r="B34">
+        <v>115.41</v>
+      </c>
+      <c r="C34">
+        <v>120.5120388037047</v>
+      </c>
+      <c r="D34">
+        <v>0.7344355650194593</v>
+      </c>
+      <c r="E34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>52.38</v>
+      </c>
+      <c r="C35">
+        <v>54.85648604463321</v>
+      </c>
+      <c r="D35">
+        <v>0.8401381804368546</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>182.69</v>
+      </c>
+      <c r="C36">
+        <v>184.0350564107108</v>
+      </c>
+      <c r="D36">
+        <v>0.9249372331423046</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="G36">
+        <v>126.22</v>
+      </c>
+      <c r="H36">
+        <v>137.4441967422446</v>
+      </c>
+      <c r="I36">
+        <v>0.9670943502702473</v>
+      </c>
+      <c r="J36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>56.81</v>
+      </c>
+      <c r="C37">
+        <v>80.43183878138937</v>
+      </c>
+      <c r="D37">
+        <v>0.8807440226933967</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="G37">
+        <v>46.38</v>
+      </c>
+      <c r="H37">
+        <v>62.50397729687458</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>131.26</v>
+      </c>
+      <c r="C38">
+        <v>140.0842590305578</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>112.68</v>
+      </c>
+      <c r="H38">
+        <v>118.0223505098338</v>
+      </c>
+      <c r="I38">
+        <v>0.5997437692430793</v>
+      </c>
+      <c r="J38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>77.25</v>
+      </c>
+      <c r="C39">
         <v>87.23094749123473</v>
       </c>
-      <c r="D33">
+      <c r="D39">
+        <v>0.9384745935215791</v>
+      </c>
+      <c r="E39">
         <v>0.8</v>
       </c>
-      <c r="G33">
+      <c r="G39">
         <v>22.66</v>
       </c>
-      <c r="H33">
+      <c r="H39">
         <v>44.04453234215361</v>
       </c>
-      <c r="I33">
+      <c r="I39">
+        <v>0.9799214801447084</v>
+      </c>
+      <c r="J39">
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>102.3</v>
-      </c>
-      <c r="C34">
-        <v>102.3007008435684</v>
-      </c>
-      <c r="D34">
-        <v>0.7</v>
-      </c>
-      <c r="G34">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>103.17</v>
+      </c>
+      <c r="C40">
+        <v>103.1696444156127</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>53.76</v>
       </c>
-      <c r="H34">
+      <c r="H40">
         <v>53.76228157544278</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
+      <c r="I40">
+        <v>0.8165229378311882</v>
+      </c>
+      <c r="J40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
         <v>38.77</v>
       </c>
-      <c r="C35">
+      <c r="C41">
         <v>38.76666340151514</v>
       </c>
-      <c r="D35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>0.6910218253968254</v>
-      </c>
-      <c r="G41">
-        <v>0.4194444444444445</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>55.39</v>
-      </c>
-      <c r="C46">
-        <v>60.9176157115223</v>
-      </c>
-      <c r="D46">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47">
-        <v>76.75</v>
-      </c>
-      <c r="C47">
-        <v>87.23094749123473</v>
-      </c>
-      <c r="D47">
+      <c r="D41">
+        <v>0.7606395682357036</v>
+      </c>
+      <c r="E41">
         <v>0.8</v>
       </c>
-      <c r="G47">
-        <v>22.66</v>
-      </c>
-      <c r="H47">
-        <v>44.04453234215361</v>
-      </c>
-      <c r="I47">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>102.3</v>
-      </c>
-      <c r="C48">
-        <v>102.3007008435684</v>
-      </c>
-      <c r="D48">
-        <v>0.9</v>
-      </c>
-      <c r="G48">
-        <v>53.76</v>
-      </c>
-      <c r="H48">
-        <v>53.76228157544278</v>
-      </c>
-      <c r="I48">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49">
-        <v>38.77</v>
-      </c>
-      <c r="C49">
-        <v>38.76666340151514</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>0.8998980379188712</v>
-      </c>
-      <c r="G55">
-        <v>0.7911493764172335</v>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0.7463709372637946</v>
+      </c>
+      <c r="G42">
+        <v>0.7814043209876543</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -1130,9 +1123,6 @@
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="G30:K30"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Github\BA_Jupyter_Notebook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF0729-C31C-4023-A2C2-4198002C9BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="35">
   <si>
     <t>Avg. TF-IDF</t>
   </si>
@@ -28,13 +34,13 @@
     <t>Precision</t>
   </si>
   <si>
-    <t>Index Time</t>
+    <t>Index Time (ms)</t>
   </si>
   <si>
-    <t>Request Time</t>
+    <t>Request Time (ms)</t>
   </si>
   <si>
-    <t>b2db7cb645dd416b87cf8ec8e6614a66</t>
+    <t>User 1</t>
   </si>
   <si>
     <t>ML-Searchengine</t>
@@ -97,7 +103,7 @@
     <t>0.50</t>
   </si>
   <si>
-    <t>c41c6e5dff9b4c3180b40c9e34968860</t>
+    <t>User 2</t>
   </si>
   <si>
     <t>0.82</t>
@@ -105,12 +111,27 @@
   <si>
     <t>0.52</t>
   </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>User 4</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,22 +168,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +271,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +323,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,57 +516,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -512,13 +587,13 @@
         <v>0.7</v>
       </c>
       <c r="F4">
-        <v>32.78</v>
+        <v>36.72</v>
       </c>
       <c r="G4">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -529,19 +604,19 @@
         <v>60.92</v>
       </c>
       <c r="D5">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>5.6</v>
+        <v>7.43</v>
       </c>
       <c r="G5">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -558,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>19.49</v>
+        <v>21.43</v>
       </c>
       <c r="G6">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -581,13 +656,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>28.52</v>
+        <v>22.5</v>
       </c>
       <c r="G7">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -598,19 +673,19 @@
         <v>54.86</v>
       </c>
       <c r="D8">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>12.88</v>
+        <v>13.71</v>
       </c>
       <c r="G8">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -618,22 +693,22 @@
         <v>56.81</v>
       </c>
       <c r="C9">
-        <v>80.43000000000001</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="D9">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>3.07</v>
+        <v>3.97</v>
       </c>
       <c r="G9">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -641,7 +716,7 @@
         <v>131.26</v>
       </c>
       <c r="C10">
-        <v>140.08</v>
+        <v>140.08000000000001</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -650,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>4.14</v>
+        <v>4.63</v>
       </c>
       <c r="G10">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -667,19 +742,19 @@
         <v>87.23</v>
       </c>
       <c r="D11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>10.19</v>
+        <v>8.51</v>
       </c>
       <c r="G11">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -696,21 +771,21 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>3.79</v>
+        <v>3.96</v>
       </c>
       <c r="G12">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="C13">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -719,18 +794,18 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>4.73</v>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>95.51000000000001</v>
+        <v>95.51</v>
       </c>
       <c r="C14">
         <v>110.57</v>
@@ -742,18 +817,18 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="G14">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>90.45999999999999</v>
+        <v>90.46</v>
       </c>
       <c r="C15">
         <v>106.37</v>
@@ -765,18 +840,18 @@
         <v>0.7</v>
       </c>
       <c r="F15">
-        <v>14.31</v>
+        <v>12.62</v>
       </c>
       <c r="G15">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C16">
         <v>9.67</v>
@@ -788,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>12.85</v>
+        <v>13.87</v>
       </c>
       <c r="G16">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -811,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>7.2</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G17">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -834,128 +909,128 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.07</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="G18">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
-        <v>108.55</v>
+        <v>62.95</v>
       </c>
       <c r="C22">
-        <v>125.67</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="D22">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E22">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F22">
-        <v>32.78</v>
+        <v>51.56</v>
       </c>
       <c r="G22">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>57.02</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>115.41</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>120.51</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>19.49</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25">
-        <v>182.69</v>
+        <v>126.22</v>
       </c>
       <c r="C25">
-        <v>184.04</v>
+        <v>137.44</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -964,67 +1039,67 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>28.52</v>
+        <v>31</v>
       </c>
       <c r="G25">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26">
-        <v>52.38</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>54.86</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27">
-        <v>56.81</v>
+        <v>46.38</v>
       </c>
       <c r="C27">
-        <v>80.43000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="D27">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E27">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F27">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="G27">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28">
-        <v>131.26</v>
+        <v>112.68</v>
       </c>
       <c r="C28">
-        <v>140.08</v>
+        <v>118.02</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1033,90 +1108,90 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>4.14</v>
+        <v>4.32</v>
       </c>
       <c r="G28">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29">
-        <v>77.25</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>87.23</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30">
-        <v>103.17</v>
+        <v>53.76</v>
       </c>
       <c r="C30">
-        <v>103.17</v>
+        <v>53.76</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F30">
-        <v>3.79</v>
+        <v>4.42</v>
       </c>
       <c r="G30">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31">
-        <v>38.77</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>38.77</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32">
-        <v>95.51000000000001</v>
+        <v>70.19</v>
       </c>
       <c r="C32">
-        <v>110.57</v>
+        <v>76.22</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1125,41 +1200,41 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>5.7</v>
+        <v>9.65</v>
       </c>
       <c r="G32">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33">
-        <v>90.45999999999999</v>
+        <v>92.09</v>
       </c>
       <c r="C33">
-        <v>106.37</v>
+        <v>93.33</v>
       </c>
       <c r="D33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>14.31</v>
+        <v>12.15</v>
       </c>
       <c r="G33">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C34">
         <v>9.67</v>
@@ -1171,44 +1246,44 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>12.85</v>
+        <v>19.52</v>
       </c>
       <c r="G34">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1217,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>12.07</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1231,27 +1306,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1369,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1380,7 @@
         <v>60.92</v>
       </c>
       <c r="D43">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E43">
         <v>0.4</v>
@@ -1317,7 +1392,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1334,13 +1409,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="G44">
         <v>496</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1438,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1461,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1469,7 @@
         <v>56.81</v>
       </c>
       <c r="C47">
-        <v>80.43000000000001</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="D47">
         <v>0.92</v>
@@ -1409,7 +1484,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1492,7 @@
         <v>131.26</v>
       </c>
       <c r="C48">
-        <v>140.08</v>
+        <v>140.08000000000001</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1426,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G48">
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1530,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1478,15 +1553,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="C51">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1495,18 +1570,18 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G51">
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52">
-        <v>95.51000000000001</v>
+        <v>95.51</v>
       </c>
       <c r="C52">
         <v>110.57</v>
@@ -1524,12 +1599,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53">
-        <v>90.45999999999999</v>
+        <v>90.46</v>
       </c>
       <c r="C53">
         <v>106.37</v>
@@ -1547,12 +1622,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C54">
         <v>9.67</v>
@@ -1570,7 +1645,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1593,7 +1668,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1691,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1624,17 +1699,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -1654,84 +1729,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60">
-        <v>108.55</v>
+        <v>62.95</v>
       </c>
       <c r="C60">
-        <v>125.67</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="D60">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E60">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F60">
-        <v>32.78</v>
+        <v>39.17</v>
       </c>
       <c r="G60">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61">
-        <v>57.02</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62">
-        <v>115.41</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>120.51</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>19.49</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63">
-        <v>182.69</v>
+        <v>126.22</v>
       </c>
       <c r="C63">
-        <v>184.04</v>
+        <v>137.44</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1740,67 +1815,67 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>28.52</v>
+        <v>20.82</v>
       </c>
       <c r="G63">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64">
-        <v>52.38</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>54.86</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65">
-        <v>56.81</v>
+        <v>46.38</v>
       </c>
       <c r="C65">
-        <v>80.43000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="D65">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E65">
         <v>0.7</v>
       </c>
       <c r="F65">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="G65">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66">
-        <v>131.26</v>
+        <v>112.68</v>
       </c>
       <c r="C66">
-        <v>140.08</v>
+        <v>118.02</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1809,44 +1884,44 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>4.14</v>
+        <v>3.05</v>
       </c>
       <c r="G66">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67">
-        <v>77.25</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>87.23</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
       <c r="B68">
-        <v>103.17</v>
+        <v>53.76</v>
       </c>
       <c r="C68">
-        <v>103.17</v>
+        <v>53.76</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1855,44 +1930,44 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="G68">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
       <c r="B69">
-        <v>38.77</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>38.77</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
       <c r="B70">
-        <v>95.51000000000001</v>
+        <v>70.19</v>
       </c>
       <c r="C70">
-        <v>110.57</v>
+        <v>76.22</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1901,41 +1976,41 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>5.7</v>
+        <v>5.61</v>
       </c>
       <c r="G70">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
       <c r="B71">
-        <v>90.45999999999999</v>
+        <v>92.09</v>
       </c>
       <c r="C71">
-        <v>106.37</v>
+        <v>93.33</v>
       </c>
       <c r="D71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>14.31</v>
+        <v>15.78</v>
       </c>
       <c r="G71">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C72">
         <v>9.67</v>
@@ -1947,44 +2022,44 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>12.85</v>
+        <v>12.02</v>
       </c>
       <c r="G72">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
       <c r="B73">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
       <c r="B74">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1993,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12.07</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -2007,14 +2082,1572 @@
         <v>29</v>
       </c>
     </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>108.55</v>
+      </c>
+      <c r="C80">
+        <v>125.67</v>
+      </c>
+      <c r="D80">
+        <v>0.67</v>
+      </c>
+      <c r="E80">
+        <v>0.5</v>
+      </c>
+      <c r="F80">
+        <v>44.37</v>
+      </c>
+      <c r="G80">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>57.02</v>
+      </c>
+      <c r="C81">
+        <v>60.92</v>
+      </c>
+      <c r="D81">
+        <v>0.66</v>
+      </c>
+      <c r="E81">
+        <v>0.7</v>
+      </c>
+      <c r="F81">
+        <v>6.14</v>
+      </c>
+      <c r="G81">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>115.41</v>
+      </c>
+      <c r="C82">
+        <v>120.51</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>21.32</v>
+      </c>
+      <c r="G82">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <v>182.69</v>
+      </c>
+      <c r="C83">
+        <v>184.04</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.9</v>
+      </c>
+      <c r="F83">
+        <v>26.55</v>
+      </c>
+      <c r="G83">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>52.38</v>
+      </c>
+      <c r="C84">
+        <v>54.86</v>
+      </c>
+      <c r="D84">
+        <v>0.99</v>
+      </c>
+      <c r="E84">
+        <v>0.9</v>
+      </c>
+      <c r="F84">
+        <v>15.73</v>
+      </c>
+      <c r="G84">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>56.81</v>
+      </c>
+      <c r="C85">
+        <v>80.430000000000007</v>
+      </c>
+      <c r="D85">
+        <v>0.97</v>
+      </c>
+      <c r="E85">
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <v>3.05</v>
+      </c>
+      <c r="G85">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>131.26</v>
+      </c>
+      <c r="C86">
+        <v>140.08000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>77.25</v>
+      </c>
+      <c r="C87">
+        <v>87.23</v>
+      </c>
+      <c r="D87">
+        <v>0.96</v>
+      </c>
+      <c r="E87">
+        <v>0.4</v>
+      </c>
+      <c r="F87">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G87">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>139.52000000000001</v>
+      </c>
+      <c r="C88">
+        <v>166</v>
+      </c>
+      <c r="D88">
+        <v>0.86</v>
+      </c>
+      <c r="E88">
+        <v>0.6</v>
+      </c>
+      <c r="F88">
+        <v>13.31</v>
+      </c>
+      <c r="G88">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="C89">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.4</v>
+      </c>
+      <c r="F89">
+        <v>4.93</v>
+      </c>
+      <c r="G89">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>95.51</v>
+      </c>
+      <c r="C90">
+        <v>110.57</v>
+      </c>
+      <c r="D90">
+        <v>0.97</v>
+      </c>
+      <c r="E90">
+        <v>0.7</v>
+      </c>
+      <c r="F90">
+        <v>5.87</v>
+      </c>
+      <c r="G90">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91">
+        <v>90.46</v>
+      </c>
+      <c r="C91">
+        <v>106.37</v>
+      </c>
+      <c r="D91">
+        <v>0.82</v>
+      </c>
+      <c r="E91">
+        <v>0.5</v>
+      </c>
+      <c r="F91">
+        <v>13.55</v>
+      </c>
+      <c r="G91">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C92">
+        <v>9.67</v>
+      </c>
+      <c r="D92">
+        <v>0.83</v>
+      </c>
+      <c r="E92">
+        <v>0.9</v>
+      </c>
+      <c r="F92">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G92">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93">
+        <v>11.45</v>
+      </c>
+      <c r="C93">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="D93">
+        <v>0.97</v>
+      </c>
+      <c r="E93">
+        <v>0.9</v>
+      </c>
+      <c r="F93">
+        <v>27.64</v>
+      </c>
+      <c r="G93">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>1.06</v>
+      </c>
+      <c r="C94">
+        <v>1.43</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>7.76</v>
+      </c>
+      <c r="G94">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>62.95</v>
+      </c>
+      <c r="C98">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="D98">
+        <v>0.94</v>
+      </c>
+      <c r="E98">
+        <v>0.7</v>
+      </c>
+      <c r="F98">
+        <v>46.96</v>
+      </c>
+      <c r="G98">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>126.22</v>
+      </c>
+      <c r="C101">
+        <v>137.44</v>
+      </c>
+      <c r="D101">
+        <v>0.95</v>
+      </c>
+      <c r="E101">
+        <v>0.7</v>
+      </c>
+      <c r="F101">
+        <v>24.14</v>
+      </c>
+      <c r="G101">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>46.38</v>
+      </c>
+      <c r="C103">
+        <v>62.5</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0.8</v>
+      </c>
+      <c r="F103">
+        <v>4.58</v>
+      </c>
+      <c r="G103">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>112.68</v>
+      </c>
+      <c r="C104">
+        <v>118.02</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>3.98</v>
+      </c>
+      <c r="G104">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>87.35</v>
+      </c>
+      <c r="C106">
+        <v>119.32</v>
+      </c>
+      <c r="D106">
+        <v>0.84</v>
+      </c>
+      <c r="E106">
+        <v>0.5</v>
+      </c>
+      <c r="F106">
+        <v>18.47</v>
+      </c>
+      <c r="G106">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108">
+        <v>70.19</v>
+      </c>
+      <c r="C108">
+        <v>76.22</v>
+      </c>
+      <c r="D108">
+        <v>0.97</v>
+      </c>
+      <c r="E108">
+        <v>0.7</v>
+      </c>
+      <c r="F108">
+        <v>7.74</v>
+      </c>
+      <c r="G108">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109">
+        <v>92.09</v>
+      </c>
+      <c r="C109">
+        <v>93.33</v>
+      </c>
+      <c r="D109">
+        <v>0.83</v>
+      </c>
+      <c r="E109">
+        <v>0.9</v>
+      </c>
+      <c r="F109">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G109">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C110">
+        <v>9.67</v>
+      </c>
+      <c r="D110">
+        <v>0.83</v>
+      </c>
+      <c r="E110">
+        <v>0.9</v>
+      </c>
+      <c r="F110">
+        <v>20.83</v>
+      </c>
+      <c r="G110">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>29.42</v>
+      </c>
+      <c r="C111">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0.67</v>
+      </c>
+      <c r="F111">
+        <v>37.14</v>
+      </c>
+      <c r="G111">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>114.36</v>
+      </c>
+      <c r="C118">
+        <v>125.67</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>46.37</v>
+      </c>
+      <c r="G118">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>58.07</v>
+      </c>
+      <c r="C119">
+        <v>60.92</v>
+      </c>
+      <c r="D119">
+        <v>0.83</v>
+      </c>
+      <c r="E119">
+        <v>0.9</v>
+      </c>
+      <c r="F119">
+        <v>6.02</v>
+      </c>
+      <c r="G119">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>116.21</v>
+      </c>
+      <c r="C120">
+        <v>120.51</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>20.92</v>
+      </c>
+      <c r="G120">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121">
+        <v>182.92</v>
+      </c>
+      <c r="C121">
+        <v>184.04</v>
+      </c>
+      <c r="D121">
+        <v>0.79</v>
+      </c>
+      <c r="E121">
+        <v>0.8</v>
+      </c>
+      <c r="F121">
+        <v>23.91</v>
+      </c>
+      <c r="G121">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>52.38</v>
+      </c>
+      <c r="C122">
+        <v>54.86</v>
+      </c>
+      <c r="D122">
+        <v>0.99</v>
+      </c>
+      <c r="E122">
+        <v>0.9</v>
+      </c>
+      <c r="F122">
+        <v>16.12</v>
+      </c>
+      <c r="G122">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>56.81</v>
+      </c>
+      <c r="C123">
+        <v>80.430000000000007</v>
+      </c>
+      <c r="D123">
+        <v>0.71</v>
+      </c>
+      <c r="E123">
+        <v>0.6</v>
+      </c>
+      <c r="F123">
+        <v>2.99</v>
+      </c>
+      <c r="G123">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>131.41</v>
+      </c>
+      <c r="C124">
+        <v>140.08000000000001</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>3.18</v>
+      </c>
+      <c r="G124">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>77.25</v>
+      </c>
+      <c r="C125">
+        <v>87.23</v>
+      </c>
+      <c r="D125">
+        <v>0.96</v>
+      </c>
+      <c r="E125">
+        <v>0.4</v>
+      </c>
+      <c r="F125">
+        <v>12.05</v>
+      </c>
+      <c r="G125">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>160.54</v>
+      </c>
+      <c r="C126">
+        <v>166</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>12.42</v>
+      </c>
+      <c r="G126">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="C127">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>4.28</v>
+      </c>
+      <c r="G127">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>97.11</v>
+      </c>
+      <c r="C128">
+        <v>110.57</v>
+      </c>
+      <c r="D128">
+        <v>0.88</v>
+      </c>
+      <c r="E128">
+        <v>0.4</v>
+      </c>
+      <c r="F128">
+        <v>6.01</v>
+      </c>
+      <c r="G128">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>90.46</v>
+      </c>
+      <c r="C129">
+        <v>106.37</v>
+      </c>
+      <c r="D129">
+        <v>0.95</v>
+      </c>
+      <c r="E129">
+        <v>0.7</v>
+      </c>
+      <c r="F129">
+        <v>15.6</v>
+      </c>
+      <c r="G129">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C130">
+        <v>9.67</v>
+      </c>
+      <c r="D130">
+        <v>0.83</v>
+      </c>
+      <c r="E130">
+        <v>0.9</v>
+      </c>
+      <c r="F130">
+        <v>12.87</v>
+      </c>
+      <c r="G130">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131">
+        <v>29.41</v>
+      </c>
+      <c r="C131">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="D131">
+        <v>0.6</v>
+      </c>
+      <c r="E131">
+        <v>0.6</v>
+      </c>
+      <c r="F131">
+        <v>21.84</v>
+      </c>
+      <c r="G131">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>1.06</v>
+      </c>
+      <c r="C132">
+        <v>1.43</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>6.47</v>
+      </c>
+      <c r="G132">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>62.95</v>
+      </c>
+      <c r="C136">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="D136">
+        <v>0.95</v>
+      </c>
+      <c r="E136">
+        <v>0.9</v>
+      </c>
+      <c r="F136">
+        <v>97.35</v>
+      </c>
+      <c r="G136">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>126.22</v>
+      </c>
+      <c r="C139">
+        <v>137.44</v>
+      </c>
+      <c r="D139">
+        <v>0.8</v>
+      </c>
+      <c r="E139">
+        <v>0.7</v>
+      </c>
+      <c r="F139">
+        <v>25.76</v>
+      </c>
+      <c r="G139">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>46.38</v>
+      </c>
+      <c r="C141">
+        <v>62.5</v>
+      </c>
+      <c r="D141">
+        <v>0.98</v>
+      </c>
+      <c r="E141">
+        <v>0.7</v>
+      </c>
+      <c r="F141">
+        <v>3.18</v>
+      </c>
+      <c r="G141">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>112.68</v>
+      </c>
+      <c r="C142">
+        <v>118.02</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>3.32</v>
+      </c>
+      <c r="G142">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144">
+        <v>87.35</v>
+      </c>
+      <c r="C144">
+        <v>119.32</v>
+      </c>
+      <c r="D144">
+        <v>0.54</v>
+      </c>
+      <c r="E144">
+        <v>0.38</v>
+      </c>
+      <c r="F144">
+        <v>11.09</v>
+      </c>
+      <c r="G144">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146">
+        <v>70.19</v>
+      </c>
+      <c r="C146">
+        <v>76.22</v>
+      </c>
+      <c r="D146">
+        <v>0.77</v>
+      </c>
+      <c r="E146">
+        <v>0.7</v>
+      </c>
+      <c r="F146">
+        <v>6.52</v>
+      </c>
+      <c r="G146">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>92.09</v>
+      </c>
+      <c r="C147">
+        <v>93.33</v>
+      </c>
+      <c r="D147">
+        <v>0.99</v>
+      </c>
+      <c r="E147">
+        <v>0.9</v>
+      </c>
+      <c r="F147">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G147">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C148">
+        <v>9.67</v>
+      </c>
+      <c r="D148">
+        <v>0.83</v>
+      </c>
+      <c r="E148">
+        <v>0.9</v>
+      </c>
+      <c r="F148">
+        <v>13.88</v>
+      </c>
+      <c r="G148">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>29.42</v>
+      </c>
+      <c r="C149">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>21.57</v>
+      </c>
+      <c r="G149">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B134:G134"/>
     <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B115:G115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Github\BA_Jupyter_Notebook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF0729-C31C-4023-A2C2-4198002C9BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="46">
   <si>
     <t>Avg. TF-IDF</t>
   </si>
@@ -126,12 +120,45 @@
   <si>
     <t>0.42</t>
   </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>User 7</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>User 8</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,36 +195,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,61 +493,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="14" width="12.7109375" customWidth="1"/>
+    <col min="2" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -593,7 +566,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -616,7 +589,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -639,7 +612,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -662,7 +635,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -685,7 +658,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -693,10 +666,10 @@
         <v>56.81</v>
       </c>
       <c r="C9">
-        <v>80.430000000000007</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="D9">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -708,7 +681,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -716,7 +689,7 @@
         <v>131.26</v>
       </c>
       <c r="C10">
-        <v>140.08000000000001</v>
+        <v>140.08</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -731,7 +704,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -754,7 +727,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -777,15 +750,15 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="C13">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -800,12 +773,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>95.51</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="C14">
         <v>110.57</v>
@@ -823,12 +796,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>90.46</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C15">
         <v>106.37</v>
@@ -846,12 +819,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C16">
         <v>9.67</v>
@@ -869,7 +842,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -886,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G17">
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -909,51 +882,51 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="G18">
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -961,7 +934,7 @@
         <v>62.95</v>
       </c>
       <c r="C22">
-        <v>70.680000000000007</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D22">
         <v>0.95</v>
@@ -976,7 +949,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -999,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1068,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1137,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1133,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1179,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1229,12 +1202,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C34">
         <v>9.67</v>
@@ -1252,7 +1225,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1275,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1306,27 +1279,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:7">
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1366,10 +1339,10 @@
         <v>32.78</v>
       </c>
       <c r="G42">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1353,7 @@
         <v>60.92</v>
       </c>
       <c r="D43">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="E43">
         <v>0.4</v>
@@ -1392,7 +1365,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1409,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="G44">
         <v>496</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1411,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1434,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1442,7 @@
         <v>56.81</v>
       </c>
       <c r="C47">
-        <v>80.430000000000007</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="D47">
         <v>0.92</v>
@@ -1484,7 +1457,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1465,7 @@
         <v>131.26</v>
       </c>
       <c r="C48">
-        <v>140.08000000000001</v>
+        <v>140.08</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1501,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="G48">
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1503,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1553,15 +1526,15 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="C51">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1570,18 +1543,18 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="G51">
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52">
-        <v>95.51</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="C52">
         <v>110.57</v>
@@ -1599,12 +1572,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53">
-        <v>90.46</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C53">
         <v>106.37</v>
@@ -1622,12 +1595,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C54">
         <v>9.67</v>
@@ -1645,7 +1618,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1641,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1691,7 +1664,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1699,17 +1672,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:7">
+      <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1710,7 @@
         <v>62.95</v>
       </c>
       <c r="C60">
-        <v>70.680000000000007</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D60">
         <v>0.95</v>
@@ -1752,7 +1725,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1844,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1867,7 +1840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1863,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1913,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1936,7 +1909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1959,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -1982,7 +1955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2005,12 +1978,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C72">
         <v>9.67</v>
@@ -2028,7 +2001,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -2074,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -2082,27 +2055,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:7">
+      <c r="B77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2118,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2141,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2191,7 +2164,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2187,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2210,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2218,7 @@
         <v>56.81</v>
       </c>
       <c r="C85">
-        <v>80.430000000000007</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="D85">
         <v>0.97</v>
@@ -2260,7 +2233,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2268,7 +2241,7 @@
         <v>131.26</v>
       </c>
       <c r="C86">
-        <v>140.08000000000001</v>
+        <v>140.08</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2283,7 +2256,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2300,18 +2273,18 @@
         <v>0.4</v>
       </c>
       <c r="F87">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G87">
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>16</v>
       </c>
       <c r="B88">
-        <v>139.52000000000001</v>
+        <v>139.52</v>
       </c>
       <c r="C88">
         <v>166</v>
@@ -2329,15 +2302,15 @@
         <v>489</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>17</v>
       </c>
       <c r="B89">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="C89">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2352,12 +2325,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>18</v>
       </c>
       <c r="B90">
-        <v>95.51</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="C90">
         <v>110.57</v>
@@ -2375,12 +2348,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91">
-        <v>90.46</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C91">
         <v>106.37</v>
@@ -2398,12 +2371,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>20</v>
       </c>
       <c r="B92">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C92">
         <v>9.67</v>
@@ -2415,13 +2388,13 @@
         <v>0.9</v>
       </c>
       <c r="F92">
-        <v>16.010000000000002</v>
+        <v>16.01</v>
       </c>
       <c r="G92">
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2402,7 @@
         <v>11.45</v>
       </c>
       <c r="C93">
-        <v>33.770000000000003</v>
+        <v>33.77</v>
       </c>
       <c r="D93">
         <v>0.97</v>
@@ -2444,7 +2417,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2440,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2475,17 +2448,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:7">
+      <c r="B96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2513,10 +2486,10 @@
         <v>62.95</v>
       </c>
       <c r="C98">
-        <v>70.680000000000007</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D98">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E98">
         <v>0.7</v>
@@ -2528,7 +2501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2551,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2597,7 +2570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -2643,7 +2616,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -2666,7 +2639,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2689,12 +2662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>16</v>
       </c>
       <c r="B106">
-        <v>87.35</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="C106">
         <v>119.32</v>
@@ -2712,7 +2685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2735,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -2775,18 +2748,18 @@
         <v>0.9</v>
       </c>
       <c r="F109">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="G109">
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>20</v>
       </c>
       <c r="B110">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C110">
         <v>9.67</v>
@@ -2804,7 +2777,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2785,7 @@
         <v>29.42</v>
       </c>
       <c r="C111">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2827,7 +2800,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2858,27 +2831,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+    <row r="115" spans="1:7">
+      <c r="B115" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2894,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2944,7 +2917,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -2967,7 +2940,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2990,7 +2963,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -3013,7 +2986,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3021,7 +2994,7 @@
         <v>56.81</v>
       </c>
       <c r="C123">
-        <v>80.430000000000007</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="D123">
         <v>0.71</v>
@@ -3036,7 +3009,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3017,7 @@
         <v>131.41</v>
       </c>
       <c r="C124">
-        <v>140.08000000000001</v>
+        <v>140.08</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3059,7 +3032,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3055,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -3105,15 +3078,15 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>17</v>
       </c>
       <c r="B127">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="C127">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3128,7 +3101,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -3151,12 +3124,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>19</v>
       </c>
       <c r="B129">
-        <v>90.46</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C129">
         <v>106.37</v>
@@ -3174,12 +3147,12 @@
         <v>914</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>20</v>
       </c>
       <c r="B130">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C130">
         <v>9.67</v>
@@ -3197,7 +3170,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3178,7 @@
         <v>29.41</v>
       </c>
       <c r="C131">
-        <v>33.770000000000003</v>
+        <v>33.77</v>
       </c>
       <c r="D131">
         <v>0.6</v>
@@ -3220,7 +3193,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3243,7 +3216,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -3251,17 +3224,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
+    <row r="134" spans="1:7">
+      <c r="B134" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="B135" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -3289,7 +3262,7 @@
         <v>62.95</v>
       </c>
       <c r="C136">
-        <v>70.680000000000007</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D136">
         <v>0.95</v>
@@ -3298,13 +3271,13 @@
         <v>0.9</v>
       </c>
       <c r="F136">
-        <v>97.35</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="G136">
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3350,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -3373,7 +3346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -3419,7 +3392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3465,12 +3438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>16</v>
       </c>
       <c r="B144">
-        <v>87.35</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="C144">
         <v>119.32</v>
@@ -3488,7 +3461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -3511,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -3534,7 +3507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -3551,18 +3524,18 @@
         <v>0.9</v>
       </c>
       <c r="F147">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G147">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>20</v>
       </c>
       <c r="B148">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C148">
         <v>9.67</v>
@@ -3580,7 +3553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -3588,7 +3561,7 @@
         <v>29.42</v>
       </c>
       <c r="C149">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3603,7 +3576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3634,20 +3607,3136 @@
         <v>34</v>
       </c>
     </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>108.55</v>
+      </c>
+      <c r="C156">
+        <v>125.67</v>
+      </c>
+      <c r="D156">
+        <v>0.99</v>
+      </c>
+      <c r="E156">
+        <v>0.7</v>
+      </c>
+      <c r="F156">
+        <v>36.72</v>
+      </c>
+      <c r="G156">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157">
+        <v>57.02</v>
+      </c>
+      <c r="C157">
+        <v>60.92</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>7.43</v>
+      </c>
+      <c r="G157">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>115.41</v>
+      </c>
+      <c r="C158">
+        <v>120.51</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>21.43</v>
+      </c>
+      <c r="G158">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159">
+        <v>182.69</v>
+      </c>
+      <c r="C159">
+        <v>184.04</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>22.5</v>
+      </c>
+      <c r="G159">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>52.38</v>
+      </c>
+      <c r="C160">
+        <v>54.86</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>13.71</v>
+      </c>
+      <c r="G160">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161">
+        <v>56.81</v>
+      </c>
+      <c r="C161">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D161">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E161">
+        <v>0.8</v>
+      </c>
+      <c r="F161">
+        <v>3.97</v>
+      </c>
+      <c r="G161">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>131.26</v>
+      </c>
+      <c r="C162">
+        <v>140.08</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>4.63</v>
+      </c>
+      <c r="G162">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163">
+        <v>77.25</v>
+      </c>
+      <c r="C163">
+        <v>87.23</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>8.51</v>
+      </c>
+      <c r="G163">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164">
+        <v>103.17</v>
+      </c>
+      <c r="C164">
+        <v>103.17</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>3.96</v>
+      </c>
+      <c r="G164">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165">
+        <v>38.77</v>
+      </c>
+      <c r="C165">
+        <v>38.77</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>7.5</v>
+      </c>
+      <c r="G165">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="C166">
+        <v>110.57</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>5.62</v>
+      </c>
+      <c r="G166">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C167">
+        <v>106.37</v>
+      </c>
+      <c r="D167">
+        <v>0.95</v>
+      </c>
+      <c r="E167">
+        <v>0.7</v>
+      </c>
+      <c r="F167">
+        <v>12.62</v>
+      </c>
+      <c r="G167">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C168">
+        <v>9.67</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>13.87</v>
+      </c>
+      <c r="G168">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169">
+        <v>1.52</v>
+      </c>
+      <c r="C169">
+        <v>1.52</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="G169">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170">
+        <v>0.63</v>
+      </c>
+      <c r="C170">
+        <v>0.65</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>10.04</v>
+      </c>
+      <c r="G170">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="B172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174">
+        <v>62.95</v>
+      </c>
+      <c r="C174">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D174">
+        <v>0.95</v>
+      </c>
+      <c r="E174">
+        <v>0.9</v>
+      </c>
+      <c r="F174">
+        <v>51.56</v>
+      </c>
+      <c r="G174">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177">
+        <v>126.22</v>
+      </c>
+      <c r="C177">
+        <v>137.44</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>31</v>
+      </c>
+      <c r="G177">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
+        <v>46.38</v>
+      </c>
+      <c r="C179">
+        <v>62.5</v>
+      </c>
+      <c r="D179">
+        <v>0.98</v>
+      </c>
+      <c r="E179">
+        <v>0.9</v>
+      </c>
+      <c r="F179">
+        <v>3.57</v>
+      </c>
+      <c r="G179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180">
+        <v>112.68</v>
+      </c>
+      <c r="C180">
+        <v>118.02</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>4.32</v>
+      </c>
+      <c r="G180">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>53.76</v>
+      </c>
+      <c r="C182">
+        <v>53.76</v>
+      </c>
+      <c r="D182">
+        <v>0.79</v>
+      </c>
+      <c r="E182">
+        <v>0.8</v>
+      </c>
+      <c r="F182">
+        <v>4.42</v>
+      </c>
+      <c r="G182">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184">
+        <v>70.19</v>
+      </c>
+      <c r="C184">
+        <v>76.22</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>9.65</v>
+      </c>
+      <c r="G184">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185">
+        <v>92.09</v>
+      </c>
+      <c r="C185">
+        <v>93.33</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>12.15</v>
+      </c>
+      <c r="G185">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C186">
+        <v>9.67</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>19.52</v>
+      </c>
+      <c r="G186">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="B191" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>114.36</v>
+      </c>
+      <c r="C194">
+        <v>125.67</v>
+      </c>
+      <c r="D194">
+        <v>0.95</v>
+      </c>
+      <c r="E194">
+        <v>0.3</v>
+      </c>
+      <c r="F194">
+        <v>32.95</v>
+      </c>
+      <c r="G194">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>58.07</v>
+      </c>
+      <c r="C195">
+        <v>60.92</v>
+      </c>
+      <c r="D195">
+        <v>0.97</v>
+      </c>
+      <c r="E195">
+        <v>0.8</v>
+      </c>
+      <c r="F195">
+        <v>5.99</v>
+      </c>
+      <c r="G195">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>116.21</v>
+      </c>
+      <c r="C196">
+        <v>120.51</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>19.55</v>
+      </c>
+      <c r="G196">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197">
+        <v>182.92</v>
+      </c>
+      <c r="C197">
+        <v>184.04</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>22.69</v>
+      </c>
+      <c r="G197">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198">
+        <v>52.38</v>
+      </c>
+      <c r="C198">
+        <v>54.86</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>12.37</v>
+      </c>
+      <c r="G198">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199">
+        <v>56.81</v>
+      </c>
+      <c r="C199">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D199">
+        <v>0.97</v>
+      </c>
+      <c r="E199">
+        <v>0.8</v>
+      </c>
+      <c r="F199">
+        <v>3.06</v>
+      </c>
+      <c r="G199">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200">
+        <v>131.41</v>
+      </c>
+      <c r="C200">
+        <v>140.08</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>3.12</v>
+      </c>
+      <c r="G200">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201">
+        <v>77.25</v>
+      </c>
+      <c r="C201">
+        <v>87.23</v>
+      </c>
+      <c r="D201">
+        <v>0.96</v>
+      </c>
+      <c r="E201">
+        <v>0.4</v>
+      </c>
+      <c r="F201">
+        <v>7.75</v>
+      </c>
+      <c r="G201">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202">
+        <v>160.54</v>
+      </c>
+      <c r="C202">
+        <v>166</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>11.87</v>
+      </c>
+      <c r="G202">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>38.77</v>
+      </c>
+      <c r="C203">
+        <v>38.77</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>4.34</v>
+      </c>
+      <c r="G203">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204">
+        <v>97.11</v>
+      </c>
+      <c r="C204">
+        <v>110.57</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>5.63</v>
+      </c>
+      <c r="G204">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C205">
+        <v>106.37</v>
+      </c>
+      <c r="D205">
+        <v>0.95</v>
+      </c>
+      <c r="E205">
+        <v>0.7</v>
+      </c>
+      <c r="F205">
+        <v>11.62</v>
+      </c>
+      <c r="G205">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C206">
+        <v>9.67</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>12.1</v>
+      </c>
+      <c r="G206">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207">
+        <v>29.41</v>
+      </c>
+      <c r="C207">
+        <v>33.77</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>20.83</v>
+      </c>
+      <c r="G207">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208">
+        <v>1.06</v>
+      </c>
+      <c r="C208">
+        <v>1.43</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>6.14</v>
+      </c>
+      <c r="G208">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="B210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>62.95</v>
+      </c>
+      <c r="C212">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D212">
+        <v>0.38</v>
+      </c>
+      <c r="E212">
+        <v>0.2</v>
+      </c>
+      <c r="F212">
+        <v>42.38</v>
+      </c>
+      <c r="G212">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215">
+        <v>126.22</v>
+      </c>
+      <c r="C215">
+        <v>137.44</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>21.41</v>
+      </c>
+      <c r="G215">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217">
+        <v>46.38</v>
+      </c>
+      <c r="C217">
+        <v>62.5</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>0.8</v>
+      </c>
+      <c r="F217">
+        <v>2.88</v>
+      </c>
+      <c r="G217">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>112.68</v>
+      </c>
+      <c r="C218">
+        <v>118.02</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>0.9</v>
+      </c>
+      <c r="F218">
+        <v>3.54</v>
+      </c>
+      <c r="G218">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C220">
+        <v>119.32</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>11.43</v>
+      </c>
+      <c r="G220">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222">
+        <v>70.19</v>
+      </c>
+      <c r="C222">
+        <v>76.22</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>6.06</v>
+      </c>
+      <c r="G222">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223">
+        <v>92.09</v>
+      </c>
+      <c r="C223">
+        <v>93.33</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>10.29</v>
+      </c>
+      <c r="G223">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C224">
+        <v>9.67</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>12.12</v>
+      </c>
+      <c r="G224">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225">
+        <v>29.42</v>
+      </c>
+      <c r="C225">
+        <v>37.12</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0.67</v>
+      </c>
+      <c r="F225">
+        <v>21.54</v>
+      </c>
+      <c r="G225">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="B229" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="B230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" t="s">
+        <v>4</v>
+      </c>
+      <c r="G231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232">
+        <v>114.36</v>
+      </c>
+      <c r="C232">
+        <v>125.67</v>
+      </c>
+      <c r="D232">
+        <v>0.66</v>
+      </c>
+      <c r="E232">
+        <v>0.5</v>
+      </c>
+      <c r="F232">
+        <v>33.13</v>
+      </c>
+      <c r="G232">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <v>58.07</v>
+      </c>
+      <c r="C233">
+        <v>60.92</v>
+      </c>
+      <c r="D233">
+        <v>0.58</v>
+      </c>
+      <c r="E233">
+        <v>0.5</v>
+      </c>
+      <c r="F233">
+        <v>5.68</v>
+      </c>
+      <c r="G233">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234">
+        <v>116.21</v>
+      </c>
+      <c r="C234">
+        <v>120.51</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>0.9</v>
+      </c>
+      <c r="F234">
+        <v>24.64</v>
+      </c>
+      <c r="G234">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235">
+        <v>182.92</v>
+      </c>
+      <c r="C235">
+        <v>184.04</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>21.59</v>
+      </c>
+      <c r="G235">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <v>52.38</v>
+      </c>
+      <c r="C236">
+        <v>54.86</v>
+      </c>
+      <c r="D236">
+        <v>0.79</v>
+      </c>
+      <c r="E236">
+        <v>0.6</v>
+      </c>
+      <c r="F236">
+        <v>13.19</v>
+      </c>
+      <c r="G236">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237">
+        <v>56.81</v>
+      </c>
+      <c r="C237">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D237">
+        <v>0.92</v>
+      </c>
+      <c r="E237">
+        <v>0.7</v>
+      </c>
+      <c r="F237">
+        <v>2.89</v>
+      </c>
+      <c r="G237">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238">
+        <v>131.41</v>
+      </c>
+      <c r="C238">
+        <v>140.08</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0.8</v>
+      </c>
+      <c r="F238">
+        <v>3.57</v>
+      </c>
+      <c r="G238">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239">
+        <v>77.25</v>
+      </c>
+      <c r="C239">
+        <v>87.23</v>
+      </c>
+      <c r="D239">
+        <v>0.96</v>
+      </c>
+      <c r="E239">
+        <v>0.4</v>
+      </c>
+      <c r="F239">
+        <v>8.06</v>
+      </c>
+      <c r="G239">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240">
+        <v>160.54</v>
+      </c>
+      <c r="C240">
+        <v>166</v>
+      </c>
+      <c r="D240">
+        <v>0.3</v>
+      </c>
+      <c r="E240">
+        <v>0.1</v>
+      </c>
+      <c r="F240">
+        <v>11.32</v>
+      </c>
+      <c r="G240">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241">
+        <v>38.77</v>
+      </c>
+      <c r="C241">
+        <v>38.77</v>
+      </c>
+      <c r="D241">
+        <v>0.97</v>
+      </c>
+      <c r="E241">
+        <v>0.6</v>
+      </c>
+      <c r="F241">
+        <v>4.26</v>
+      </c>
+      <c r="G241">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242">
+        <v>97.11</v>
+      </c>
+      <c r="C242">
+        <v>110.57</v>
+      </c>
+      <c r="D242">
+        <v>0.92</v>
+      </c>
+      <c r="E242">
+        <v>0.2</v>
+      </c>
+      <c r="F242">
+        <v>7.05</v>
+      </c>
+      <c r="G242">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C243">
+        <v>106.37</v>
+      </c>
+      <c r="D243">
+        <v>0.82</v>
+      </c>
+      <c r="E243">
+        <v>0.5</v>
+      </c>
+      <c r="F243">
+        <v>12.67</v>
+      </c>
+      <c r="G243">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C244">
+        <v>9.67</v>
+      </c>
+      <c r="D244">
+        <v>0.83</v>
+      </c>
+      <c r="E244">
+        <v>0.9</v>
+      </c>
+      <c r="F244">
+        <v>12.58</v>
+      </c>
+      <c r="G244">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245">
+        <v>29.41</v>
+      </c>
+      <c r="C245">
+        <v>33.77</v>
+      </c>
+      <c r="D245">
+        <v>0.74</v>
+      </c>
+      <c r="E245">
+        <v>0.8</v>
+      </c>
+      <c r="F245">
+        <v>22.06</v>
+      </c>
+      <c r="G245">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246">
+        <v>1.06</v>
+      </c>
+      <c r="C246">
+        <v>1.43</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>7.35</v>
+      </c>
+      <c r="G246">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="B248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>3</v>
+      </c>
+      <c r="F249" t="s">
+        <v>4</v>
+      </c>
+      <c r="G249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>62.95</v>
+      </c>
+      <c r="C250">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D250">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E250">
+        <v>0.7</v>
+      </c>
+      <c r="F250">
+        <v>43.79</v>
+      </c>
+      <c r="G250">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>126.22</v>
+      </c>
+      <c r="C253">
+        <v>137.44</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>21.91</v>
+      </c>
+      <c r="G253">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255">
+        <v>46.38</v>
+      </c>
+      <c r="C255">
+        <v>62.5</v>
+      </c>
+      <c r="D255">
+        <v>0.98</v>
+      </c>
+      <c r="E255">
+        <v>0.7</v>
+      </c>
+      <c r="F255">
+        <v>3.47</v>
+      </c>
+      <c r="G255">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>112.68</v>
+      </c>
+      <c r="C256">
+        <v>118.02</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>3.1</v>
+      </c>
+      <c r="G256">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C258">
+        <v>119.32</v>
+      </c>
+      <c r="D258">
+        <v>0.85</v>
+      </c>
+      <c r="E258">
+        <v>0.38</v>
+      </c>
+      <c r="F258">
+        <v>14.54</v>
+      </c>
+      <c r="G258">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260">
+        <v>70.19</v>
+      </c>
+      <c r="C260">
+        <v>76.22</v>
+      </c>
+      <c r="D260">
+        <v>0.68</v>
+      </c>
+      <c r="E260">
+        <v>0.5</v>
+      </c>
+      <c r="F260">
+        <v>5.38</v>
+      </c>
+      <c r="G260">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>92.09</v>
+      </c>
+      <c r="C261">
+        <v>93.33</v>
+      </c>
+      <c r="D261">
+        <v>0.82</v>
+      </c>
+      <c r="E261">
+        <v>0.8</v>
+      </c>
+      <c r="F261">
+        <v>8.24</v>
+      </c>
+      <c r="G261">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C262">
+        <v>9.67</v>
+      </c>
+      <c r="D262">
+        <v>0.83</v>
+      </c>
+      <c r="E262">
+        <v>0.9</v>
+      </c>
+      <c r="F262">
+        <v>11.8</v>
+      </c>
+      <c r="G262">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="B267" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="B268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>3</v>
+      </c>
+      <c r="F269" t="s">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>114.36</v>
+      </c>
+      <c r="C270">
+        <v>125.67</v>
+      </c>
+      <c r="D270">
+        <v>0.98</v>
+      </c>
+      <c r="E270">
+        <v>0.7</v>
+      </c>
+      <c r="F270">
+        <v>35.03</v>
+      </c>
+      <c r="G270">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271">
+        <v>58.07</v>
+      </c>
+      <c r="C271">
+        <v>60.92</v>
+      </c>
+      <c r="D271">
+        <v>0.58</v>
+      </c>
+      <c r="E271">
+        <v>0.5</v>
+      </c>
+      <c r="F271">
+        <v>6.03</v>
+      </c>
+      <c r="G271">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>116.21</v>
+      </c>
+      <c r="C272">
+        <v>120.51</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>21.99</v>
+      </c>
+      <c r="G272">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273">
+        <v>182.92</v>
+      </c>
+      <c r="C273">
+        <v>184.04</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>22.24</v>
+      </c>
+      <c r="G273">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>52.38</v>
+      </c>
+      <c r="C274">
+        <v>54.86</v>
+      </c>
+      <c r="D274">
+        <v>0.89</v>
+      </c>
+      <c r="E274">
+        <v>0.6</v>
+      </c>
+      <c r="F274">
+        <v>14.65</v>
+      </c>
+      <c r="G274">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275">
+        <v>56.81</v>
+      </c>
+      <c r="C275">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D275">
+        <v>0.97</v>
+      </c>
+      <c r="E275">
+        <v>0.8</v>
+      </c>
+      <c r="F275">
+        <v>3.7</v>
+      </c>
+      <c r="G275">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276">
+        <v>131.41</v>
+      </c>
+      <c r="C276">
+        <v>140.08</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>4.6</v>
+      </c>
+      <c r="G276">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>77.25</v>
+      </c>
+      <c r="C277">
+        <v>87.23</v>
+      </c>
+      <c r="D277">
+        <v>0.32</v>
+      </c>
+      <c r="E277">
+        <v>0.1</v>
+      </c>
+      <c r="F277">
+        <v>9.73</v>
+      </c>
+      <c r="G277">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278">
+        <v>160.54</v>
+      </c>
+      <c r="C278">
+        <v>166</v>
+      </c>
+      <c r="D278">
+        <v>0.82</v>
+      </c>
+      <c r="E278">
+        <v>0.7</v>
+      </c>
+      <c r="F278">
+        <v>11.36</v>
+      </c>
+      <c r="G278">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>38.77</v>
+      </c>
+      <c r="C279">
+        <v>38.77</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>0.4</v>
+      </c>
+      <c r="F279">
+        <v>6.26</v>
+      </c>
+      <c r="G279">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <v>97.11</v>
+      </c>
+      <c r="C280">
+        <v>110.57</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>6.87</v>
+      </c>
+      <c r="G280">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C281">
+        <v>106.37</v>
+      </c>
+      <c r="D281">
+        <v>0.82</v>
+      </c>
+      <c r="E281">
+        <v>0.5</v>
+      </c>
+      <c r="F281">
+        <v>12.41</v>
+      </c>
+      <c r="G281">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>20</v>
+      </c>
+      <c r="B282">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C282">
+        <v>9.67</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>12.66</v>
+      </c>
+      <c r="G282">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283">
+        <v>29.41</v>
+      </c>
+      <c r="C283">
+        <v>33.77</v>
+      </c>
+      <c r="D283">
+        <v>0.74</v>
+      </c>
+      <c r="E283">
+        <v>0.8</v>
+      </c>
+      <c r="F283">
+        <v>23.02</v>
+      </c>
+      <c r="G283">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284">
+        <v>1.06</v>
+      </c>
+      <c r="C284">
+        <v>1.43</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>8.66</v>
+      </c>
+      <c r="G284">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="B286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>3</v>
+      </c>
+      <c r="F287" t="s">
+        <v>4</v>
+      </c>
+      <c r="G287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>62.95</v>
+      </c>
+      <c r="C288">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>0.9</v>
+      </c>
+      <c r="F288">
+        <v>34.01</v>
+      </c>
+      <c r="G288">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291">
+        <v>126.22</v>
+      </c>
+      <c r="C291">
+        <v>137.44</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>31.16</v>
+      </c>
+      <c r="G291">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293">
+        <v>46.38</v>
+      </c>
+      <c r="C293">
+        <v>62.5</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>0.8</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
+      </c>
+      <c r="G293">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294">
+        <v>112.68</v>
+      </c>
+      <c r="C294">
+        <v>118.02</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>2.91</v>
+      </c>
+      <c r="G294">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C296">
+        <v>119.32</v>
+      </c>
+      <c r="D296">
+        <v>0.9</v>
+      </c>
+      <c r="E296">
+        <v>0.75</v>
+      </c>
+      <c r="F296">
+        <v>17.8</v>
+      </c>
+      <c r="G296">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298">
+        <v>70.19</v>
+      </c>
+      <c r="C298">
+        <v>76.22</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>6.7</v>
+      </c>
+      <c r="G298">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299">
+        <v>92.09</v>
+      </c>
+      <c r="C299">
+        <v>93.33</v>
+      </c>
+      <c r="D299">
+        <v>0.82</v>
+      </c>
+      <c r="E299">
+        <v>0.8</v>
+      </c>
+      <c r="F299">
+        <v>13.18</v>
+      </c>
+      <c r="G299">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C300">
+        <v>9.67</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>17.91</v>
+      </c>
+      <c r="G300">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B134:G134"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B96:G96"/>
     <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="B229:G229"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="B248:G248"/>
+    <mergeCell ref="B267:G267"/>
+    <mergeCell ref="B268:G268"/>
+    <mergeCell ref="B286:G286"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="52">
   <si>
     <t>Avg. TF-IDF</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>0.80</t>
+  </si>
+  <si>
+    <t>User 9</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>User 10</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.48</t>
   </si>
 </sst>
 </file>
@@ -494,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6711,8 +6729,1560 @@
         <v>26</v>
       </c>
     </row>
+    <row r="305" spans="1:7">
+      <c r="B305" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="B306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+      <c r="E307" t="s">
+        <v>3</v>
+      </c>
+      <c r="F307" t="s">
+        <v>4</v>
+      </c>
+      <c r="G307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308">
+        <v>114.36</v>
+      </c>
+      <c r="C308">
+        <v>125.67</v>
+      </c>
+      <c r="D308">
+        <v>0.98</v>
+      </c>
+      <c r="E308">
+        <v>0.7</v>
+      </c>
+      <c r="F308">
+        <v>39.08</v>
+      </c>
+      <c r="G308">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>9</v>
+      </c>
+      <c r="B309">
+        <v>58.07</v>
+      </c>
+      <c r="C309">
+        <v>60.92</v>
+      </c>
+      <c r="D309">
+        <v>0.58</v>
+      </c>
+      <c r="E309">
+        <v>0.5</v>
+      </c>
+      <c r="F309">
+        <v>7.77</v>
+      </c>
+      <c r="G309">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310">
+        <v>116.21</v>
+      </c>
+      <c r="C310">
+        <v>120.51</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>35.48</v>
+      </c>
+      <c r="G310">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>11</v>
+      </c>
+      <c r="B311">
+        <v>182.92</v>
+      </c>
+      <c r="C311">
+        <v>184.04</v>
+      </c>
+      <c r="D311">
+        <v>0.83</v>
+      </c>
+      <c r="E311">
+        <v>0.9</v>
+      </c>
+      <c r="F311">
+        <v>26.76</v>
+      </c>
+      <c r="G311">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312">
+        <v>52.38</v>
+      </c>
+      <c r="C312">
+        <v>54.86</v>
+      </c>
+      <c r="D312">
+        <v>0.88</v>
+      </c>
+      <c r="E312">
+        <v>0.5</v>
+      </c>
+      <c r="F312">
+        <v>18.66</v>
+      </c>
+      <c r="G312">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313">
+        <v>56.81</v>
+      </c>
+      <c r="C313">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D313">
+        <v>0.92</v>
+      </c>
+      <c r="E313">
+        <v>0.7</v>
+      </c>
+      <c r="F313">
+        <v>2.9</v>
+      </c>
+      <c r="G313">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314">
+        <v>131.41</v>
+      </c>
+      <c r="C314">
+        <v>140.08</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>5.13</v>
+      </c>
+      <c r="G314">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315">
+        <v>77.25</v>
+      </c>
+      <c r="C315">
+        <v>87.23</v>
+      </c>
+      <c r="D315">
+        <v>0.96</v>
+      </c>
+      <c r="E315">
+        <v>0.4</v>
+      </c>
+      <c r="F315">
+        <v>17.01</v>
+      </c>
+      <c r="G315">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316">
+        <v>160.54</v>
+      </c>
+      <c r="C316">
+        <v>166</v>
+      </c>
+      <c r="D316">
+        <v>0.54</v>
+      </c>
+      <c r="E316">
+        <v>0.4</v>
+      </c>
+      <c r="F316">
+        <v>11.11</v>
+      </c>
+      <c r="G316">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317">
+        <v>38.77</v>
+      </c>
+      <c r="C317">
+        <v>38.77</v>
+      </c>
+      <c r="D317">
+        <v>0.97</v>
+      </c>
+      <c r="E317">
+        <v>0.6</v>
+      </c>
+      <c r="F317">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G317">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318">
+        <v>97.11</v>
+      </c>
+      <c r="C318">
+        <v>110.57</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>5.45</v>
+      </c>
+      <c r="G318">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>19</v>
+      </c>
+      <c r="B319">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C319">
+        <v>106.37</v>
+      </c>
+      <c r="D319">
+        <v>0.95</v>
+      </c>
+      <c r="E319">
+        <v>0.7</v>
+      </c>
+      <c r="F319">
+        <v>12.38</v>
+      </c>
+      <c r="G319">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>20</v>
+      </c>
+      <c r="B320">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C320">
+        <v>9.67</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>13.32</v>
+      </c>
+      <c r="G320">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>21</v>
+      </c>
+      <c r="B321">
+        <v>29.41</v>
+      </c>
+      <c r="C321">
+        <v>33.77</v>
+      </c>
+      <c r="D321">
+        <v>0.66</v>
+      </c>
+      <c r="E321">
+        <v>0.6</v>
+      </c>
+      <c r="F321">
+        <v>24.9</v>
+      </c>
+      <c r="G321">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>22</v>
+      </c>
+      <c r="B322">
+        <v>1.06</v>
+      </c>
+      <c r="C322">
+        <v>1.43</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>7.48</v>
+      </c>
+      <c r="G322">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="B324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>2</v>
+      </c>
+      <c r="E325" t="s">
+        <v>3</v>
+      </c>
+      <c r="F325" t="s">
+        <v>4</v>
+      </c>
+      <c r="G325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326">
+        <v>62.95</v>
+      </c>
+      <c r="C326">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D326">
+        <v>0.95</v>
+      </c>
+      <c r="E326">
+        <v>0.9</v>
+      </c>
+      <c r="F326">
+        <v>40.97</v>
+      </c>
+      <c r="G326">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329">
+        <v>126.22</v>
+      </c>
+      <c r="C329">
+        <v>137.44</v>
+      </c>
+      <c r="D329">
+        <v>0.8</v>
+      </c>
+      <c r="E329">
+        <v>0.7</v>
+      </c>
+      <c r="F329">
+        <v>22.01</v>
+      </c>
+      <c r="G329">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331">
+        <v>46.38</v>
+      </c>
+      <c r="C331">
+        <v>62.5</v>
+      </c>
+      <c r="D331">
+        <v>0.98</v>
+      </c>
+      <c r="E331">
+        <v>0.7</v>
+      </c>
+      <c r="F331">
+        <v>5.09</v>
+      </c>
+      <c r="G331">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332">
+        <v>112.68</v>
+      </c>
+      <c r="C332">
+        <v>118.02</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>2.86</v>
+      </c>
+      <c r="G332">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C334">
+        <v>119.32</v>
+      </c>
+      <c r="D334">
+        <v>0.5</v>
+      </c>
+      <c r="E334">
+        <v>0.25</v>
+      </c>
+      <c r="F334">
+        <v>31.08</v>
+      </c>
+      <c r="G334">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>17</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336">
+        <v>70.19</v>
+      </c>
+      <c r="C336">
+        <v>76.22</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>6.68</v>
+      </c>
+      <c r="G336">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>19</v>
+      </c>
+      <c r="B337">
+        <v>92.09</v>
+      </c>
+      <c r="C337">
+        <v>93.33</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>9.26</v>
+      </c>
+      <c r="G337">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>20</v>
+      </c>
+      <c r="B338">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C338">
+        <v>9.67</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>12.75</v>
+      </c>
+      <c r="G338">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="B343" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="B344" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2</v>
+      </c>
+      <c r="E345" t="s">
+        <v>3</v>
+      </c>
+      <c r="F345" t="s">
+        <v>4</v>
+      </c>
+      <c r="G345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346">
+        <v>114.36</v>
+      </c>
+      <c r="C346">
+        <v>125.67</v>
+      </c>
+      <c r="D346">
+        <v>0.98</v>
+      </c>
+      <c r="E346">
+        <v>0.6</v>
+      </c>
+      <c r="F346">
+        <v>33.6</v>
+      </c>
+      <c r="G346">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347">
+        <v>58.07</v>
+      </c>
+      <c r="C347">
+        <v>60.92</v>
+      </c>
+      <c r="D347">
+        <v>0.97</v>
+      </c>
+      <c r="E347">
+        <v>0.8</v>
+      </c>
+      <c r="F347">
+        <v>5.45</v>
+      </c>
+      <c r="G347">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348">
+        <v>116.21</v>
+      </c>
+      <c r="C348">
+        <v>120.51</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>26.11</v>
+      </c>
+      <c r="G348">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349">
+        <v>182.92</v>
+      </c>
+      <c r="C349">
+        <v>184.04</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>24.65</v>
+      </c>
+      <c r="G349">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350">
+        <v>52.38</v>
+      </c>
+      <c r="C350">
+        <v>54.86</v>
+      </c>
+      <c r="D350">
+        <v>0.99</v>
+      </c>
+      <c r="E350">
+        <v>0.9</v>
+      </c>
+      <c r="F350">
+        <v>12.71</v>
+      </c>
+      <c r="G350">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>56.81</v>
+      </c>
+      <c r="C351">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="D351">
+        <v>0.97</v>
+      </c>
+      <c r="E351">
+        <v>0.8</v>
+      </c>
+      <c r="F351">
+        <v>4.26</v>
+      </c>
+      <c r="G351">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352">
+        <v>131.41</v>
+      </c>
+      <c r="C352">
+        <v>140.08</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>4.88</v>
+      </c>
+      <c r="G352">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353">
+        <v>77.25</v>
+      </c>
+      <c r="C353">
+        <v>87.23</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>10.59</v>
+      </c>
+      <c r="G353">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354">
+        <v>160.54</v>
+      </c>
+      <c r="C354">
+        <v>166</v>
+      </c>
+      <c r="D354">
+        <v>0.91</v>
+      </c>
+      <c r="E354">
+        <v>0.8</v>
+      </c>
+      <c r="F354">
+        <v>10.67</v>
+      </c>
+      <c r="G354">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>17</v>
+      </c>
+      <c r="B355">
+        <v>38.77</v>
+      </c>
+      <c r="C355">
+        <v>38.77</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>4.63</v>
+      </c>
+      <c r="G355">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356">
+        <v>97.11</v>
+      </c>
+      <c r="C356">
+        <v>110.57</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>5.83</v>
+      </c>
+      <c r="G356">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>19</v>
+      </c>
+      <c r="B357">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="C357">
+        <v>106.37</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>11.06</v>
+      </c>
+      <c r="G357">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>20</v>
+      </c>
+      <c r="B358">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C358">
+        <v>9.67</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>13.01</v>
+      </c>
+      <c r="G358">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>21</v>
+      </c>
+      <c r="B359">
+        <v>29.41</v>
+      </c>
+      <c r="C359">
+        <v>33.77</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>30.54</v>
+      </c>
+      <c r="G359">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>22</v>
+      </c>
+      <c r="B360">
+        <v>1.06</v>
+      </c>
+      <c r="C360">
+        <v>1.43</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="G360">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="B362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2</v>
+      </c>
+      <c r="E363" t="s">
+        <v>3</v>
+      </c>
+      <c r="F363" t="s">
+        <v>4</v>
+      </c>
+      <c r="G363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>8</v>
+      </c>
+      <c r="B364">
+        <v>62.95</v>
+      </c>
+      <c r="C364">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D364">
+        <v>0.95</v>
+      </c>
+      <c r="E364">
+        <v>0.9</v>
+      </c>
+      <c r="F364">
+        <v>36.86</v>
+      </c>
+      <c r="G364">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367">
+        <v>126.22</v>
+      </c>
+      <c r="C367">
+        <v>137.44</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>26.88</v>
+      </c>
+      <c r="G367">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" t="s">
+        <v>13</v>
+      </c>
+      <c r="B369">
+        <v>46.38</v>
+      </c>
+      <c r="C369">
+        <v>62.5</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>0.8</v>
+      </c>
+      <c r="F369">
+        <v>2.86</v>
+      </c>
+      <c r="G369">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>14</v>
+      </c>
+      <c r="B370">
+        <v>112.68</v>
+      </c>
+      <c r="C370">
+        <v>118.02</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>3.77</v>
+      </c>
+      <c r="G370">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371">
+        <v>22.66</v>
+      </c>
+      <c r="C371">
+        <v>44.04</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>8.99</v>
+      </c>
+      <c r="G371">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>16</v>
+      </c>
+      <c r="B372">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C372">
+        <v>119.32</v>
+      </c>
+      <c r="D372">
+        <v>0.5</v>
+      </c>
+      <c r="E372">
+        <v>0.25</v>
+      </c>
+      <c r="F372">
+        <v>12.63</v>
+      </c>
+      <c r="G372">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374">
+        <v>70.19</v>
+      </c>
+      <c r="C374">
+        <v>76.22</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G374">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375">
+        <v>92.09</v>
+      </c>
+      <c r="C375">
+        <v>93.33</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>0.8</v>
+      </c>
+      <c r="F375">
+        <v>11.97</v>
+      </c>
+      <c r="G375">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C376">
+        <v>9.67</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>12.2</v>
+      </c>
+      <c r="G376">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B377">
+        <v>29.42</v>
+      </c>
+      <c r="C377">
+        <v>37.12</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>22.5</v>
+      </c>
+      <c r="G377">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>22</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B20:G20"/>
@@ -6737,6 +8307,12 @@
     <mergeCell ref="B267:G267"/>
     <mergeCell ref="B268:G268"/>
     <mergeCell ref="B286:G286"/>
+    <mergeCell ref="B305:G305"/>
+    <mergeCell ref="B306:G306"/>
+    <mergeCell ref="B324:G324"/>
+    <mergeCell ref="B343:G343"/>
+    <mergeCell ref="B344:G344"/>
+    <mergeCell ref="B362:G362"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
